--- a/StructureDefinition-HcvViralLoadTestG.xlsx
+++ b/StructureDefinition-HcvViralLoadTestG.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T13:43:27+00:00</t>
+    <t>2025-01-13T15:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HcvViralLoadTestG.xlsx
+++ b/StructureDefinition-HcvViralLoadTestG.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:57:06+00:00</t>
+    <t>2025-01-13T16:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HcvViralLoadTestG.xlsx
+++ b/StructureDefinition-HcvViralLoadTestG.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:28:16+00:00</t>
+    <t>2025-01-14T02:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HcvViralLoadTestG.xlsx
+++ b/StructureDefinition-HcvViralLoadTestG.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T02:52:20+00:00</t>
+    <t>2025-01-21T18:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HcvViralLoadTestG.xlsx
+++ b/StructureDefinition-HcvViralLoadTestG.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T18:11:19+00:00</t>
+    <t>2025-01-28T16:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
